--- a/src/JCSGYK/AdminBundle/Resources/public/reports/clients.xlsx
+++ b/src/JCSGYK/AdminBundle/Resources/public/reports/clients.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="167" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="14800" yWindow="5240" windowWidth="23520" windowHeight="13620" tabRatio="167"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>ÜSZ</t>
   </si>
@@ -38,9 +42,6 @@
     <t>TAJ szám</t>
   </si>
   <si>
-    <t>[client.szam;block=tbs:row]</t>
-  </si>
-  <si>
     <t>[client.nev]</t>
   </si>
   <si>
@@ -57,16 +58,40 @@
   </si>
   <si>
     <t>[client.taj]</t>
+  </si>
+  <si>
+    <t>[client.archiv]</t>
+  </si>
+  <si>
+    <t>Státusz</t>
+  </si>
+  <si>
+    <t>Józsefvárosi Szociális Szolgáltató és Gyermekjóléti központ</t>
+  </si>
+  <si>
+    <t>Ügyfél kimutatás</t>
+  </si>
+  <si>
+    <t>Készült:</t>
+  </si>
+  <si>
+    <t>[sp.datum]</t>
+  </si>
+  <si>
+    <t>Problémák</t>
+  </si>
+  <si>
+    <t>[client.szam;block=tbs:row;sub1=problems]</t>
+  </si>
+  <si>
+    <t>[client_sub1.p;block=tbs:cell]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -74,22 +99,23 @@
       <charset val="1"/>
     </font>
     <font>
+      <u/>
       <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
+      <u/>
       <sz val="10"/>
+      <color theme="11"/>
       <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -98,74 +124,68 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -224,35 +244,378 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A6:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.61224489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.5459183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.969387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.4489795918367"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="44"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.1530612244898"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.7602040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" customWidth="1"/>
+    <col min="5" max="5" width="38.83203125" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="9" max="15" width="66.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="2" customFormat="1">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -274,37 +637,53 @@
       <c r="G6" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:9" s="4" customFormat="1">
+      <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="3" t="s">
         <v>13</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/src/JCSGYK/AdminBundle/Resources/public/reports/clients.xlsx
+++ b/src/JCSGYK/AdminBundle/Resources/public/reports/clients.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14800" yWindow="5240" windowWidth="23520" windowHeight="13620" tabRatio="167"/>
+    <workbookView xWindow="6020" yWindow="1320" windowWidth="42460" windowHeight="18800" tabRatio="167"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>ÜSZ</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Születési idő</t>
   </si>
   <si>
-    <t>Lakcím</t>
-  </si>
-  <si>
     <t>Esetgazda</t>
   </si>
   <si>
@@ -85,6 +82,15 @@
   </si>
   <si>
     <t>[client_sub1.p;block=tbs:cell]</t>
+  </si>
+  <si>
+    <t>Lakóhely</t>
+  </si>
+  <si>
+    <t>Tartózkodási hely</t>
+  </si>
+  <si>
+    <t>[client.tartozkodasihely]</t>
   </si>
 </sst>
 </file>
@@ -159,8 +165,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -175,13 +187,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -579,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -591,31 +609,31 @@
     <col min="2" max="2" width="19.1640625" customWidth="1"/>
     <col min="3" max="3" width="13.1640625" customWidth="1"/>
     <col min="4" max="4" width="17.1640625" customWidth="1"/>
-    <col min="5" max="5" width="38.83203125" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
-    <col min="9" max="15" width="66.83203125" customWidth="1"/>
+    <col min="5" max="6" width="38.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="10" max="16" width="66.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
         <v>16</v>
       </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="2" customFormat="1">
+    <row r="6" spans="1:10" s="2" customFormat="1">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -629,48 +647,54 @@
         <v>3</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="I6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="4" customFormat="1">
+      <c r="A7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="4" customFormat="1">
-      <c r="A7" s="3" t="s">
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
